--- a/Klemmplan.xlsx
+++ b/Klemmplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hauptspeicher\BZTG\ETS24\MC\005_Projekt_Kontrollpanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A13B7C-2999-4D48-96C0-E0BD3FB1372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007AF91-3D35-4135-B8E0-2D68EAC0ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F31E2EC8-B452-4291-AAF8-4E4184A82665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F31E2EC8-B452-4291-AAF8-4E4184A82665}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Einspeisung</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Netzteil</t>
-  </si>
-  <si>
-    <t>Relais 1</t>
   </si>
   <si>
     <t>Relais 2</t>
@@ -325,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -335,8 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,17 +348,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,17 +366,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066C951-0CF4-469A-8A32-2369E1D5118A}">
   <dimension ref="B3:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,18 +737,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="L3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="L3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
@@ -769,200 +762,200 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="26"/>
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="5"/>
       <c r="K8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="28"/>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="22"/>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="K10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
-      <c r="D11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="22"/>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="20"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="28"/>
+      <c r="D12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1002,12 +995,12 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -1017,211 +1010,215 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M23">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
         <v>58</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" t="s">
-        <v>59</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="2"/>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="D30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="10" t="s">
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="D31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>

--- a/Klemmplan.xlsx
+++ b/Klemmplan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hauptspeicher\BZTG\ETS24\MC\005_Projekt_Kontrollpanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007AF91-3D35-4135-B8E0-2D68EAC0ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2848D49-ABF8-451E-B478-6FC68BDC073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F31E2EC8-B452-4291-AAF8-4E4184A82665}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Klemmplan" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="140">
   <si>
     <t>Einspeisung</t>
   </si>
@@ -216,13 +217,253 @@
   </si>
   <si>
     <t>PT-Q Klemmen</t>
+  </si>
+  <si>
+    <t>GND Relais 6</t>
+  </si>
+  <si>
+    <t>5V L-</t>
+  </si>
+  <si>
+    <t>ESP32 GND</t>
+  </si>
+  <si>
+    <t>3.3V IN -</t>
+  </si>
+  <si>
+    <t>3.3V IN +</t>
+  </si>
+  <si>
+    <t>3.3V OUT -</t>
+  </si>
+  <si>
+    <t>3.3V OUT +</t>
+  </si>
+  <si>
+    <t>Relais 1 COM</t>
+  </si>
+  <si>
+    <t>Klemmplan Kontrollpanel</t>
+  </si>
+  <si>
+    <t>X1.1</t>
+  </si>
+  <si>
+    <t>X1.2</t>
+  </si>
+  <si>
+    <t>X1.3</t>
+  </si>
+  <si>
+    <t>X1.4</t>
+  </si>
+  <si>
+    <t>X1.5</t>
+  </si>
+  <si>
+    <t>X1.6</t>
+  </si>
+  <si>
+    <t>Einspeisung - X1</t>
+  </si>
+  <si>
+    <t>Ausspeisung - X2</t>
+  </si>
+  <si>
+    <t>X2.1</t>
+  </si>
+  <si>
+    <t>X2.2</t>
+  </si>
+  <si>
+    <t>X2.3</t>
+  </si>
+  <si>
+    <t>X2.4</t>
+  </si>
+  <si>
+    <t>X2.5</t>
+  </si>
+  <si>
+    <t>X2.6</t>
+  </si>
+  <si>
+    <t>X2.7</t>
+  </si>
+  <si>
+    <t>X2.8</t>
+  </si>
+  <si>
+    <t>X2.9</t>
+  </si>
+  <si>
+    <t>X2.10</t>
+  </si>
+  <si>
+    <t>X2.11</t>
+  </si>
+  <si>
+    <t>X2.12</t>
+  </si>
+  <si>
+    <t>X2.13</t>
+  </si>
+  <si>
+    <t>X2.14</t>
+  </si>
+  <si>
+    <t>X2.15</t>
+  </si>
+  <si>
+    <t>Intern - X3</t>
+  </si>
+  <si>
+    <t>X3.1</t>
+  </si>
+  <si>
+    <t>X3.2</t>
+  </si>
+  <si>
+    <t>X3.3</t>
+  </si>
+  <si>
+    <t>X3.4</t>
+  </si>
+  <si>
+    <t>X3.5</t>
+  </si>
+  <si>
+    <t>X3.6</t>
+  </si>
+  <si>
+    <t>X3.7</t>
+  </si>
+  <si>
+    <t>X3.8</t>
+  </si>
+  <si>
+    <t>X3.9</t>
+  </si>
+  <si>
+    <t>X3.10</t>
+  </si>
+  <si>
+    <t>Sammelschiene - X4</t>
+  </si>
+  <si>
+    <t>X4.1</t>
+  </si>
+  <si>
+    <t>X4.2</t>
+  </si>
+  <si>
+    <t>X4.3</t>
+  </si>
+  <si>
+    <t>X4.4</t>
+  </si>
+  <si>
+    <t>X4.5</t>
+  </si>
+  <si>
+    <t>X4.6</t>
+  </si>
+  <si>
+    <t>X4.7</t>
+  </si>
+  <si>
+    <t>X4.8</t>
+  </si>
+  <si>
+    <t>X4.9</t>
+  </si>
+  <si>
+    <t>X4.10</t>
+  </si>
+  <si>
+    <t>X4.11</t>
+  </si>
+  <si>
+    <t>X4.12</t>
+  </si>
+  <si>
+    <t>X4.13</t>
+  </si>
+  <si>
+    <t>X4.14</t>
+  </si>
+  <si>
+    <t>X4.15</t>
+  </si>
+  <si>
+    <t>X4.16</t>
+  </si>
+  <si>
+    <t>X4.17</t>
+  </si>
+  <si>
+    <t>X4.18</t>
+  </si>
+  <si>
+    <t>X4.19</t>
+  </si>
+  <si>
+    <t>X4.20</t>
+  </si>
+  <si>
+    <t>X4.21</t>
+  </si>
+  <si>
+    <t>X4.22</t>
+  </si>
+  <si>
+    <t>X4.23</t>
+  </si>
+  <si>
+    <t>X4.24</t>
+  </si>
+  <si>
+    <t>X4.25</t>
+  </si>
+  <si>
+    <t>X4.26</t>
+  </si>
+  <si>
+    <t>X4.27</t>
+  </si>
+  <si>
+    <t>X4.28</t>
+  </si>
+  <si>
+    <t>X4.29</t>
+  </si>
+  <si>
+    <t>X4.30</t>
+  </si>
+  <si>
+    <t>F2 N Out</t>
+  </si>
+  <si>
+    <t>F2 N IN</t>
+  </si>
+  <si>
+    <t>F1 1</t>
+  </si>
+  <si>
+    <t>T1 L-</t>
+  </si>
+  <si>
+    <t>T1 N</t>
+  </si>
+  <si>
+    <t>T1 L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +473,31 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,11 +584,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -376,11 +694,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +1086,872 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98477582-76DF-4B28-A976-89D311EF53F3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="51"/>
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="51"/>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="11"/>
+      <c r="E67" s="51"/>
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="11"/>
+      <c r="E68" s="51"/>
+      <c r="F68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="11"/>
+      <c r="E69" s="51"/>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="11"/>
+      <c r="E70" s="51"/>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="E71" s="51"/>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="11"/>
+      <c r="E72" s="51"/>
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="11"/>
+      <c r="E73" s="51"/>
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="11"/>
+      <c r="E74" s="51"/>
+      <c r="F74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="11"/>
+      <c r="E75" s="51"/>
+      <c r="F75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="11"/>
+      <c r="E76" s="51"/>
+      <c r="F76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="11"/>
+      <c r="E77" s="51"/>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="30"/>
+      <c r="E78" s="7"/>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="53"/>
+      <c r="F82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="53"/>
+      <c r="F83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="14"/>
+      <c r="E84" s="53"/>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="14"/>
+      <c r="E85" s="53"/>
+      <c r="F85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="14"/>
+      <c r="E86" s="53"/>
+      <c r="F86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="14"/>
+      <c r="E87" s="53"/>
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="14"/>
+      <c r="E88" s="53"/>
+      <c r="F88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="14"/>
+      <c r="E89" s="53"/>
+      <c r="F89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="14"/>
+      <c r="E90" s="53"/>
+      <c r="F90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="14"/>
+      <c r="E91" s="53"/>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="14"/>
+      <c r="E92" s="53"/>
+      <c r="F92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="14"/>
+      <c r="E93" s="53"/>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="55"/>
+      <c r="E94" s="53"/>
+      <c r="F94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="54"/>
+      <c r="E95" s="27"/>
+      <c r="F95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C62:G62"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066C951-0CF4-469A-8A32-2369E1D5118A}">
   <dimension ref="B3:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -737,18 +1969,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="L3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
@@ -995,12 +2227,12 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -1069,11 +2301,11 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="29"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1206,7 +2438,7 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="24"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="25"/>

--- a/Klemmplan.xlsx
+++ b/Klemmplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hauptspeicher\BZTG\ETS24\MC\005_Projekt_Kontrollpanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2848D49-ABF8-451E-B478-6FC68BDC073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC03BAF-A43B-43A9-B08D-1D9EBDFFF8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F31E2EC8-B452-4291-AAF8-4E4184A82665}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -703,22 +703,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,14 +733,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,8 +1089,8 @@
   </sheetPr>
   <dimension ref="B1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,26 +1110,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -1151,8 +1148,8 @@
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1170,8 +1167,8 @@
       <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="46" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1188,8 +1185,8 @@
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1203,8 +1200,8 @@
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="46" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1218,8 +1215,8 @@
       <c r="D10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="46" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="42" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="29" t="s">
@@ -1233,8 +1230,8 @@
       <c r="D11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="42" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1249,13 +1246,13 @@
       <c r="G12" s="2"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -1269,8 +1266,8 @@
       <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1282,8 +1279,8 @@
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1295,8 +1292,8 @@
       <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1308,8 +1305,8 @@
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1321,8 +1318,8 @@
       <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1334,8 +1331,8 @@
       <c r="D23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="38" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -1347,8 +1344,8 @@
       <c r="D24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="38" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -1367,8 +1364,8 @@
       <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
         <v>84</v>
       </c>
       <c r="G26" s="4"/>
@@ -1378,8 +1375,8 @@
       <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="4"/>
@@ -1389,8 +1386,8 @@
       <c r="D28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="4"/>
@@ -1400,8 +1397,8 @@
       <c r="D29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="4"/>
@@ -1411,8 +1408,8 @@
       <c r="D30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="4"/>
@@ -1422,8 +1419,8 @@
       <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>89</v>
       </c>
       <c r="G31" s="4"/>
@@ -1433,8 +1430,8 @@
       <c r="D32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="38" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="4"/>
@@ -1444,8 +1441,8 @@
       <c r="D33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="38" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="5"/>
@@ -1458,13 +1455,13 @@
       <c r="G34" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="26"/>
@@ -1489,8 +1486,8 @@
       <c r="D40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="40" t="s">
+      <c r="E40" s="32"/>
+      <c r="F40" s="37" t="s">
         <v>93</v>
       </c>
       <c r="G40" s="4"/>
@@ -1506,8 +1503,8 @@
       <c r="D41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="40" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="37" t="s">
         <v>94</v>
       </c>
       <c r="G41" s="4"/>
@@ -1525,8 +1522,8 @@
       <c r="D42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="40" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="37" t="s">
         <v>95</v>
       </c>
       <c r="G42" s="5"/>
@@ -1542,8 +1539,8 @@
       <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="41" t="s">
+      <c r="E43" s="33"/>
+      <c r="F43" s="34" t="s">
         <v>96</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -1561,8 +1558,8 @@
       <c r="D44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="40" t="s">
+      <c r="E44" s="33"/>
+      <c r="F44" s="37" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -1580,8 +1577,8 @@
       <c r="D45" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="41" t="s">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
         <v>98</v>
       </c>
       <c r="G45" s="24" t="s">
@@ -1599,8 +1596,8 @@
         <v>64</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="35"/>
+      <c r="F46" s="37" t="s">
         <v>99</v>
       </c>
       <c r="G46" s="5"/>
@@ -1614,8 +1611,8 @@
       <c r="D47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="41" t="s">
+      <c r="E47" s="34"/>
+      <c r="F47" s="34" t="s">
         <v>100</v>
       </c>
       <c r="G47" s="24"/>
@@ -1627,8 +1624,8 @@
       <c r="D48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="40" t="s">
+      <c r="E48" s="35"/>
+      <c r="F48" s="37" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="5"/>
@@ -1640,8 +1637,8 @@
       <c r="D49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="41" t="s">
+      <c r="E49" s="36"/>
+      <c r="F49" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G49" s="16"/>
@@ -1703,13 +1700,13 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="13" t="s">
@@ -1724,7 +1721,7 @@
       <c r="C65" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="3"/>
       <c r="F65" t="s">
         <v>105</v>
       </c>
@@ -1733,84 +1730,84 @@
       <c r="C66" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="3"/>
       <c r="F66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="11"/>
-      <c r="E67" s="51"/>
+      <c r="E67" s="3"/>
       <c r="F67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="11"/>
-      <c r="E68" s="51"/>
+      <c r="E68" s="3"/>
       <c r="F68" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="11"/>
-      <c r="E69" s="51"/>
+      <c r="E69" s="3"/>
       <c r="F69" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="11"/>
-      <c r="E70" s="51"/>
+      <c r="E70" s="3"/>
       <c r="F70" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="11"/>
-      <c r="E71" s="51"/>
+      <c r="E71" s="3"/>
       <c r="F71" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="11"/>
-      <c r="E72" s="51"/>
+      <c r="E72" s="3"/>
       <c r="F72" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="11"/>
-      <c r="E73" s="51"/>
+      <c r="E73" s="3"/>
       <c r="F73" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="11"/>
-      <c r="E74" s="51"/>
+      <c r="E74" s="3"/>
       <c r="F74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="11"/>
-      <c r="E75" s="51"/>
+      <c r="E75" s="3"/>
       <c r="F75" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="11"/>
-      <c r="E76" s="51"/>
+      <c r="E76" s="3"/>
       <c r="F76" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="11"/>
-      <c r="E77" s="51"/>
+      <c r="E77" s="3"/>
       <c r="F77" t="s">
         <v>117</v>
       </c>
@@ -1826,7 +1823,7 @@
       <c r="C81" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="52"/>
+      <c r="E81" s="47"/>
       <c r="F81" t="s">
         <v>119</v>
       </c>
@@ -1835,7 +1832,7 @@
       <c r="C82" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="48"/>
       <c r="F82" t="s">
         <v>120</v>
       </c>
@@ -1844,90 +1841,89 @@
       <c r="C83" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="53"/>
+      <c r="E83" s="48"/>
       <c r="F83" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="14"/>
-      <c r="E84" s="53"/>
+      <c r="E84" s="48"/>
       <c r="F84" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="14"/>
-      <c r="E85" s="53"/>
+      <c r="E85" s="48"/>
       <c r="F85" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="14"/>
-      <c r="E86" s="53"/>
+      <c r="E86" s="48"/>
       <c r="F86" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="14"/>
-      <c r="E87" s="53"/>
+      <c r="E87" s="48"/>
       <c r="F87" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="14"/>
-      <c r="E88" s="53"/>
+      <c r="E88" s="48"/>
       <c r="F88" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="14"/>
-      <c r="E89" s="53"/>
+      <c r="E89" s="48"/>
       <c r="F89" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="14"/>
-      <c r="E90" s="53"/>
+      <c r="E90" s="48"/>
       <c r="F90" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="14"/>
-      <c r="E91" s="53"/>
+      <c r="E91" s="48"/>
       <c r="F91" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="14"/>
-      <c r="E92" s="53"/>
+      <c r="E92" s="48"/>
       <c r="F92" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="14"/>
-      <c r="E93" s="53"/>
+      <c r="E93" s="48"/>
       <c r="F93" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="55"/>
-      <c r="E94" s="53"/>
+      <c r="C94" s="49"/>
+      <c r="E94" s="48"/>
       <c r="F94" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="54"/>
       <c r="E95" s="27"/>
       <c r="F95" t="s">
         <v>133</v>
@@ -1969,18 +1965,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="L3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
@@ -2227,12 +2223,12 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
